--- a/Money/指数基金定投.xlsx
+++ b/Money/指数基金定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24560" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24380" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="投资策略" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>我的定投计划</t>
     <rPh sb="0" eb="1">
@@ -440,6 +440,13 @@
     </rPh>
     <rPh sb="33" eb="34">
       <t>di'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红利ETF</t>
+    <rPh sb="0" eb="1">
+      <t>hong'li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -485,12 +492,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,7 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+    <sheetView zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -889,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,10 +934,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>170819</v>
+        <v>170825</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.0150000000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8.84</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.11310000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Money/指数基金定投.xlsx
+++ b/Money/指数基金定投.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24380" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24380" windowHeight="15560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="投资策略" sheetId="1" r:id="rId1"/>
     <sheet name="定投记录" sheetId="2" r:id="rId2"/>
+    <sheet name="个人大额收支状态" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>我的定投计划</t>
     <rPh sb="0" eb="1">
@@ -447,6 +448,101 @@
     <t>红利ETF</t>
     <rPh sb="0" eb="1">
       <t>hong'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <rPh sb="0" eb="1">
+      <t>yong'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用量</t>
+    <rPh sb="0" eb="1">
+      <t>yong'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行存量</t>
+    <rPh sb="0" eb="1">
+      <t>yin'hang'cun'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买比特币</t>
+    <rPh sb="0" eb="1">
+      <t>mai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bi'te'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父亲转账</t>
+    <rPh sb="0" eb="1">
+      <t>fu'qin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuan'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母亲转账</t>
+    <rPh sb="0" eb="1">
+      <t>mu'qin'zhuan'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补发工资</t>
+    <rPh sb="0" eb="1">
+      <t>bu'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交学费</t>
+    <rPh sb="0" eb="1">
+      <t>shang'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xue'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借王天琪药费</t>
+    <rPh sb="0" eb="1">
+      <t>jie</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wang'tian'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yao'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买红利ETF</t>
+    <rPh sb="0" eb="1">
+      <t>mai'hong'li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -899,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -956,4 +1052,180 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>170715</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5400</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>170729</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="1">
+        <f>C3+D2</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>170815</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-8000</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D14" si="0">C4+D3</f>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>170820</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>27400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>170826</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-8000</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>170827</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-13000</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>170828</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-3000</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Money/指数基金定投.xlsx
+++ b/Money/指数基金定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24380" windowHeight="15560" tabRatio="500" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="440" windowWidth="24380" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="投资策略" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>我的定投计划</t>
     <rPh sb="0" eb="1">
@@ -543,6 +543,20 @@
     <t>买红利ETF</t>
     <rPh sb="0" eb="1">
       <t>mai'hong'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买比特币</t>
+    <rPh sb="0" eb="1">
+      <t>mai'bi'te'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手续费</t>
+    <rPh sb="0" eb="1">
+      <t>shou'xu'fei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -993,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,7 +1022,7 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1027,8 +1041,11 @@
       <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>170825</v>
       </c>
@@ -1046,6 +1063,9 @@
       </c>
       <c r="F2" s="3">
         <v>0.11310000000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1056,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1100,128 +1120,107 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>170729</v>
+        <v>170720</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1">
-        <v>10000</v>
+        <v>-2500</v>
       </c>
       <c r="D3" s="1">
-        <f>C3+D2</f>
-        <v>15400</v>
+        <f>D2+C3</f>
+        <v>2900</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>170815</v>
+        <v>170729</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
-        <v>-8000</v>
+        <v>10000</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D14" si="0">C4+D3</f>
-        <v>7400</v>
+        <f t="shared" ref="D4:D9" si="0">D3+C4</f>
+        <v>12900</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>170820</v>
+        <v>170815</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1">
-        <v>20000</v>
+        <v>-8000</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>27400</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>170826</v>
+        <v>170820</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1">
-        <v>-8000</v>
+        <v>20000</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>19400</v>
+        <v>24900</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>170827</v>
+        <v>170826</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1">
-        <v>-13000</v>
+        <v>-8000</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>6400</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>170828</v>
+        <v>170827</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1">
-        <v>-3000</v>
+        <v>-13000</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>3400</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>170828</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-3000</v>
+      </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>3400</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
